--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,223 +40,241 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>evil</t>
+    <t>fucking</t>
   </si>
   <si>
     <t>insane</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>fucking</t>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>sorry</t>
   </si>
   <si>
     <t>dumb</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>sorry</t>
+    <t>addicted</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
     <t>weird</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>dangerous</t>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>sick</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>destroying</t>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>scary</t>
+    <t>fucked</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>fucked</t>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>seriously</t>
+    <t>least</t>
+  </si>
+  <si>
+    <t>serious</t>
   </si>
   <si>
     <t>black</t>
   </si>
   <si>
-    <t>serious</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>brilliant</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
+    <t>essential</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>powerful</t>
+    <t>high</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>2020</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>live</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
     <t>twitter</t>
   </si>
   <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>watching</t>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>…</t>
@@ -620,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,10 +646,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,10 +710,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -710,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -742,10 +760,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -760,16 +778,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -789,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -807,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>0.9333333333333333</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -831,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -839,13 +857,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9807692307692307</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C6">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -857,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -881,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -889,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9333333333333333</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -907,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -931,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -939,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9230769230769231</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -957,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>0.7894736842105263</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -981,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -989,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1007,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>0.7241379310344828</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="L9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="M9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1031,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1039,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8939393939393939</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C10">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1057,31 +1075,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="L10">
+        <v>12</v>
+      </c>
+      <c r="M10">
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>7</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10">
-        <v>0.6933333333333334</v>
-      </c>
-      <c r="L10">
-        <v>52</v>
-      </c>
-      <c r="M10">
-        <v>52</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1089,7 +1107,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8666666666666667</v>
+        <v>0.8125</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -1107,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>0.6923076923076923</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1131,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1139,13 +1157,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1157,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K12">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="L12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1181,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1189,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1210,16 +1228,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K13">
-        <v>0.55</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L13">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M13">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1231,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1242,10 +1260,10 @@
         <v>0.75</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1257,13 +1275,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K14">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L14">
         <v>7</v>
@@ -1281,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1289,13 +1307,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1310,16 +1328,16 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K15">
-        <v>0.4814814814814815</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1331,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1339,13 +1357,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7058823529411765</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1360,16 +1378,16 @@
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K16">
-        <v>0.4736842105263158</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L16">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1381,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1389,38 +1407,38 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="L17">
         <v>14</v>
       </c>
-      <c r="D17">
+      <c r="M17">
         <v>14</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>6</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17">
-        <v>0.375</v>
-      </c>
-      <c r="L17">
-        <v>18</v>
-      </c>
-      <c r="M17">
-        <v>18</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
@@ -1431,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1442,10 +1460,10 @@
         <v>0.7</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1457,19 +1475,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K18">
-        <v>0.3636363636363636</v>
+        <v>0.5</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1481,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1489,13 +1507,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6923076923076923</v>
+        <v>0.675</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1507,19 +1525,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K19">
-        <v>0.3157894736842105</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1531,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1539,13 +1557,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1557,31 +1575,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K20">
-        <v>0.2777777777777778</v>
+        <v>0.375</v>
       </c>
       <c r="L20">
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <v>6</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>10</v>
-      </c>
-      <c r="M20">
-        <v>10</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1589,13 +1607,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.631578947368421</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1607,19 +1625,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K21">
-        <v>0.2608695652173913</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="L21">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1631,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1639,37 +1657,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6086956521739131</v>
+        <v>0.6</v>
       </c>
       <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>14</v>
       </c>
-      <c r="D22">
-        <v>14</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>9</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K22">
-        <v>0.2413479052823315</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L22">
-        <v>265</v>
+        <v>6</v>
       </c>
       <c r="M22">
-        <v>265</v>
+        <v>6</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1681,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>833</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1710,16 +1728,16 @@
         <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K23">
-        <v>0.2203389830508475</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L23">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1731,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1739,13 +1757,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.574468085106383</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1757,19 +1775,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K24">
-        <v>0.1639344262295082</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1781,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1789,13 +1807,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5714285714285714</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1807,19 +1825,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K25">
-        <v>0.1481481481481481</v>
+        <v>0.25</v>
       </c>
       <c r="L25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1831,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1839,13 +1857,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5652173913043478</v>
+        <v>0.5625</v>
       </c>
       <c r="C26">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1857,19 +1875,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K26">
-        <v>0.1463414634146341</v>
+        <v>0.2349726775956284</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>258</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>258</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1881,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>35</v>
+        <v>840</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1889,13 +1907,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5384615384615384</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1907,19 +1925,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K27">
-        <v>0.1267605633802817</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1931,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1939,13 +1957,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1957,19 +1975,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K28">
-        <v>0.1263157894736842</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1981,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1989,13 +2007,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2010,16 +2028,16 @@
         <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K29">
-        <v>0.1111111111111111</v>
+        <v>0.1549295774647887</v>
       </c>
       <c r="L29">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2031,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2039,13 +2057,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4705882352941176</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2057,19 +2075,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K30">
-        <v>0.1076923076923077</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="L30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2081,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2089,13 +2107,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2107,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K31">
-        <v>0.1058823529411765</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2131,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>76</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2139,7 +2157,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4285714285714285</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -2157,19 +2175,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K32">
-        <v>0.04379562043795621</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="L32">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M32">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2181,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>131</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2189,13 +2207,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4166666666666667</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2207,19 +2225,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K33">
-        <v>0.02560240963855422</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2231,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>647</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2239,13 +2257,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4102564102564102</v>
+        <v>0.375</v>
       </c>
       <c r="C34">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2257,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K34">
-        <v>0.02346041055718475</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2281,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>333</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2289,13 +2307,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3928571428571428</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2307,19 +2325,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K35">
-        <v>0.02272727272727273</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2331,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>602</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2339,13 +2357,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2857142857142857</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2357,19 +2375,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K36">
-        <v>0.02222222222222222</v>
+        <v>0.04379562043795621</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2381,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>308</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2389,7 +2407,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2857142857142857</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -2407,19 +2425,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K37">
-        <v>0.02037037037037037</v>
+        <v>0.03519061583577713</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2431,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>529</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2439,13 +2457,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.141025641025641</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C38">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2457,19 +2475,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K38">
-        <v>0.01664532650448143</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2481,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>768</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2489,49 +2507,201 @@
         <v>44</v>
       </c>
       <c r="B39">
+        <v>0.25</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>21</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K39">
+        <v>0.02560240963855422</v>
+      </c>
+      <c r="L39">
+        <v>17</v>
+      </c>
+      <c r="M39">
+        <v>17</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="C40">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>69</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K40">
+        <v>0.02222222222222222</v>
+      </c>
+      <c r="L40">
+        <v>7</v>
+      </c>
+      <c r="M40">
+        <v>7</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
         <v>0.03355704697986577</v>
       </c>
-      <c r="C39">
+      <c r="C41">
         <v>10</v>
       </c>
-      <c r="D39">
+      <c r="D41">
         <v>11</v>
       </c>
-      <c r="E39">
+      <c r="E41">
         <v>0.09</v>
       </c>
-      <c r="F39">
+      <c r="F41">
         <v>0.91</v>
       </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
         <v>288</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K39">
-        <v>0.01440092165898618</v>
-      </c>
-      <c r="L39">
-        <v>25</v>
-      </c>
-      <c r="M39">
-        <v>25</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>1711</v>
+      <c r="J41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K41">
+        <v>0.01664532650448143</v>
+      </c>
+      <c r="L41">
+        <v>13</v>
+      </c>
+      <c r="M41">
+        <v>13</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K42">
+        <v>0.01623376623376623</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <v>10</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K43">
+        <v>0.01209677419354839</v>
+      </c>
+      <c r="L43">
+        <v>21</v>
+      </c>
+      <c r="M43">
+        <v>21</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>1715</v>
       </c>
     </row>
   </sheetData>
